--- a/input/Datos.xlsx
+++ b/input/Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mydrive.mdlz.com/personal/jose_ochoa2_mdlz_com/Documents/CAT Forecasting Tower/MX Data Analyst/Business Case/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\caso_tallarines\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{F887346C-7FE7-4200-BDD2-B60EA5970597}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C11DD3D0-F2CB-451A-B77E-5EE162E365C9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F267A59E-B2CF-4B2B-ACDF-F2E1FD94FF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="711" xr2:uid="{3DCD7E97-2B2C-4B72-9967-064DD301386B}"/>
+    <workbookView xWindow="-6998" yWindow="-16200" windowWidth="10380" windowHeight="15600" tabRatio="711" firstSheet="4" activeTab="5" xr2:uid="{3DCD7E97-2B2C-4B72-9967-064DD301386B}"/>
   </bookViews>
   <sheets>
     <sheet name="MAESTRO PRODUCTO" sheetId="1" r:id="rId1"/>
@@ -251,9 +251,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,6 +270,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -296,27 +304,27 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -332,7 +340,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -630,9 +638,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99CBD0F2-4F57-46FC-85B9-76A0792B86C5}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -870,7 +878,7 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -20326,7 +20334,7 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -39782,7 +39790,7 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -59238,7 +59246,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
@@ -59692,11 +59700,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BAF9C1-6E99-4D56-B986-7AA381861A32}">
   <dimension ref="A1:D1100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -60008,7 +60016,7 @@
       <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>60.109381999999997</v>
       </c>
     </row>
@@ -75120,7 +75128,7 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="91" customWidth="1"/>
@@ -75142,7 +75150,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
@@ -75153,7 +75161,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
@@ -75164,7 +75172,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
@@ -75175,7 +75183,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" t="s">
@@ -75186,7 +75194,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
+      <c r="A6" t="s">
         <v>42</v>
       </c>
       <c r="B6" t="s">
@@ -75200,7 +75208,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
@@ -75214,7 +75222,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="A8" t="s">
         <v>44</v>
       </c>
       <c r="B8" t="s">
@@ -75228,7 +75236,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
       <c r="B9" t="s">
@@ -75242,7 +75250,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="A10" t="s">
         <v>40</v>
       </c>
       <c r="B10" t="s">
@@ -75256,7 +75264,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" t="s">
         <v>39</v>
       </c>
       <c r="B11" t="s">
@@ -75270,7 +75278,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="A12" t="s">
         <v>45</v>
       </c>
       <c r="B12" t="s">
